--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467666.2789651844</v>
+        <v>470918.5405760814</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346306</v>
+        <v>3854815.050462389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970762</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7628888.574709604</v>
+        <v>7573746.997907998</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.8002412057219</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>116.439644539739</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>220.3146016126443</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>173.7828199682119</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>332.7770642499989</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>171.9000062624141</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>349.7480363891209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>97.39884545952255</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I9" t="n">
         <v>48.89338144820752</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1309,10 +1311,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>179.5936484773495</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>28.48969855726904</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1436,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1585,10 +1587,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W13" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>372.4089305243873</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1619,10 +1621,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>316.5487336740566</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.0074039714629</v>
+        <v>336.6327140501647</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>119.9824850603073</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2087,19 +2089,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>153.7307537210686</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>349.7480363891209</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>120.281291003743</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
@@ -2293,10 +2295,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>22.96189723698684</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2333,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="W23" t="n">
-        <v>157.0372784644345</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -2494,10 +2496,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>48.75094799137356</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.12062365094888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>336.6327140501647</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>326.9245160038021</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I27" t="n">
         <v>48.89338144820752</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2728,7 +2730,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>92.73469553428545</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>369.8161657342523</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>336.748425770774</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>113.1667354347867</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>181.6970230215432</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>306.0679300967039</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>189.7169897416849</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>100.3434053864692</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>87.95308749070819</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>332.7770642499992</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.04355005913834</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>207.6985751920917</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.1667354347866</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>279.5348493339614</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>145.17281638102</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>110.2859504019293</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>289.1043232126787</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>40.88643432951811</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>35.04275038455948</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>248.209283128839</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4059,22 +4061,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>121.3691205752644</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.99100827250065</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
@@ -4192,10 +4194,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1418.290805874553</v>
+        <v>952.9534263337243</v>
       </c>
       <c r="C2" t="n">
-        <v>1418.290805874553</v>
+        <v>952.9534263337243</v>
       </c>
       <c r="D2" t="n">
-        <v>1418.290805874553</v>
+        <v>567.5122975503921</v>
       </c>
       <c r="E2" t="n">
-        <v>1015.707280991098</v>
+        <v>164.9287726669366</v>
       </c>
       <c r="F2" t="n">
-        <v>598.8128425210757</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
         <v>1392.575851912381</v>
@@ -4361,19 +4363,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.195900010237</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.705190930838</v>
+        <v>952.9534263337243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
         <v>47.31297010154361</v>
@@ -4416,10 +4418,10 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
         <v>1725.662044805892</v>
@@ -4443,16 +4445,16 @@
         <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>663.3212008849971</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="V4" t="n">
-        <v>397.3418557058213</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W4" t="n">
-        <v>114.011453636999</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.210445219441</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C5" t="n">
-        <v>786.0349437223717</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D5" t="n">
         <v>449.8964949849991</v>
@@ -4568,19 +4570,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4592,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930838</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L6" t="n">
-        <v>160.427952321271</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083089</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>427.6021490532311</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6228038740554</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.336361148354</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C8" t="n">
-        <v>1378.336361148354</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D8" t="n">
-        <v>1378.336361148354</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="E8" t="n">
-        <v>975.7528362648986</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F8" t="n">
-        <v>558.8583977948764</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G8" t="n">
-        <v>145.6956422828795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4804,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>952.2962261735861</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1480.107509811048</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>1920.147110703377</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2268.334602834899</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4837,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1378.336361148354</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1378.336361148354</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4920,13 +4922,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154361</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D11" t="n">
         <v>47.31297010154361</v>
@@ -5045,16 +5047,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712875</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415868</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P11" t="n">
         <v>2365.64850507718</v>
@@ -5066,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>1946.856874287477</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V11" t="n">
-        <v>1604.750064990995</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W11" t="n">
-        <v>1233.751029959283</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X11" t="n">
-        <v>844.2984248923394</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y11" t="n">
-        <v>447.8077158129405</v>
+        <v>1007.337326116642</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M12" t="n">
-        <v>850.6182020620834</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5221,19 +5223,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>713.0409408113302</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>427.6021490532311</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6228038740554</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W13" t="n">
         <v>47.31297010154361</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2365.64850507718</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C14" t="n">
-        <v>1989.47786818386</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D14" t="n">
-        <v>1604.036739400527</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.453214517072</v>
+        <v>783.9536042019261</v>
       </c>
       <c r="F14" t="n">
-        <v>784.5587760470498</v>
+        <v>367.0591657319038</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5291,10 +5293,10 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L15" t="n">
-        <v>47.31297010154361</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M15" t="n">
-        <v>632.8109751081457</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N15" t="n">
-        <v>1218.308980114748</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>1734.829262705729</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2140.450631422126</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>839.5634350659138</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H16" t="n">
         <v>47.31297010154361</v>
@@ -5464,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6228038740554</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G17" t="n">
         <v>47.31297010154361</v>
@@ -5519,19 +5521,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>406.2953261290054</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
@@ -5543,22 +5545,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>387.3460145966595</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>160.427952321271</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K18" t="n">
-        <v>480.1670983834974</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L18" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M18" t="n">
-        <v>1263.630217479596</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.128222486198</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>168.5073994553894</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>168.5073994553894</v>
       </c>
       <c r="E19" t="n">
         <v>47.31297010154361</v>
@@ -5695,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2288.496708924822</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C20" t="n">
-        <v>1895.321207427753</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D20" t="n">
-        <v>1509.88007864442</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.596489027179</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="F20" t="n">
-        <v>937.702050557157</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>2288.496708924822</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y20" t="n">
-        <v>2288.496708924822</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="C22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="D22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="E22" t="n">
-        <v>2234.887632838122</v>
+        <v>354.666044853082</v>
       </c>
       <c r="F22" t="n">
-        <v>2234.887632838122</v>
+        <v>354.666044853082</v>
       </c>
       <c r="G22" t="n">
-        <v>2234.887632838122</v>
+        <v>354.666044853082</v>
       </c>
       <c r="H22" t="n">
-        <v>2234.887632838122</v>
+        <v>199.187493814576</v>
       </c>
       <c r="I22" t="n">
-        <v>2234.887632838122</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2982.055395838353</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2779.239312020903</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T22" t="n">
-        <v>2543.520260189137</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U22" t="n">
-        <v>2258.081468431038</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="Y22" t="n">
-        <v>2234.887632838122</v>
+        <v>510.2248569938795</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1994.876002400046</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C23" t="n">
-        <v>1601.700500902976</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D23" t="n">
-        <v>1216.259372119644</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>1216.259372119644</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>799.3649336496217</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2939.442830146827</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="W23" t="n">
-        <v>2780.819316546388</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="X23" t="n">
-        <v>2391.366711479445</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="Y23" t="n">
-        <v>1994.876002400046</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1586.986833370171</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>1436.332602930263</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>1306.243635551744</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>1169.797144662632</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>1045.365338545763</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>925.3055206176277</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>837.0081042182287</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>787.6208502301403</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>787.6208502301403</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>787.6208502301403</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>1271.186936128453</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1898.958585755135</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N24" t="n">
-        <v>2554.736556965694</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
-        <v>3071.256839556675</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>3105.956385205776</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>3082.039342103841</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2947.10866500371</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2770.124853202618</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>2560.06170988126</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>2337.521708252327</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>2107.404462385613</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1918.097384735625</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1738.783167811132</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.851732643176</v>
+        <v>2180.440486385879</v>
       </c>
       <c r="C25" t="n">
-        <v>385.851732643176</v>
+        <v>2180.440486385879</v>
       </c>
       <c r="D25" t="n">
-        <v>385.851732643176</v>
+        <v>2180.440486385879</v>
       </c>
       <c r="E25" t="n">
-        <v>385.851732643176</v>
+        <v>2024.881674245082</v>
       </c>
       <c r="F25" t="n">
-        <v>385.851732643176</v>
+        <v>1867.555739458054</v>
       </c>
       <c r="G25" t="n">
-        <v>217.5976787426216</v>
+        <v>1699.3016855575</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>1543.823134518994</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V25" t="n">
-        <v>697.5868050664922</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W25" t="n">
-        <v>414.2564029976698</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X25" t="n">
-        <v>414.2564029976698</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.851732643176</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1975.634347577648</v>
+        <v>387.3460145966595</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.458846080578</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D26" t="n">
-        <v>1197.017717297246</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E26" t="n">
-        <v>794.4341924137902</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F26" t="n">
-        <v>377.539753943768</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G26" t="n">
         <v>47.31297010154361</v>
@@ -6224,16 +6226,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>864.7645682749193</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N26" t="n">
         <v>1392.575851912381</v>
@@ -6251,25 +6253,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>1975.634347577648</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.634347577648</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V26" t="n">
-        <v>1975.634347577648</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W26" t="n">
-        <v>1975.634347577648</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X26" t="n">
-        <v>1975.634347577648</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="Y26" t="n">
-        <v>1975.634347577648</v>
+        <v>387.3460145966595</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K27" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L27" t="n">
-        <v>643.9940382195844</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>643.9940382195844</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.64850507718</v>
@@ -6342,13 +6344,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X27" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.2900019614187</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="C28" t="n">
-        <v>684.084884027408</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="D28" t="n">
-        <v>528.4517709299226</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="E28" t="n">
-        <v>372.8929587891251</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F28" t="n">
-        <v>215.5670240020981</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H28" t="n">
         <v>47.31297010154361</v>
@@ -6406,28 +6408,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>528.3715098276311</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1228.513125265401</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="C29" t="n">
-        <v>835.3376237683314</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="D29" t="n">
-        <v>449.8964949849991</v>
+        <v>1296.447575514436</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X29" t="n">
-        <v>2025.498580056196</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y29" t="n">
-        <v>1629.007870976798</v>
+        <v>1681.888704297768</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K30" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L30" t="n">
-        <v>643.9940382195842</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M30" t="n">
-        <v>643.9940382195842</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N30" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="H31" t="n">
         <v>1464.201482535628</v>
@@ -6643,28 +6645,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S31" t="n">
-        <v>2251.338671304668</v>
+        <v>2038.931431892307</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.619619472903</v>
+        <v>1803.212380060541</v>
       </c>
       <c r="U31" t="n">
-        <v>1730.180827714803</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="V31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="W31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="X31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="Y31" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574134</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1665.394817750351</v>
+        <v>1579.705190930838</v>
       </c>
       <c r="C32" t="n">
-        <v>1665.394817750351</v>
+        <v>1186.529689433769</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E32" t="n">
         <v>877.3701640835627</v>
@@ -6701,22 +6703,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6725,25 +6727,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V32" t="n">
-        <v>1857.028140721749</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W32" t="n">
-        <v>1665.394817750351</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X32" t="n">
-        <v>1665.394817750351</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y32" t="n">
-        <v>1665.394817750351</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>272.5108437565964</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M33" t="n">
-        <v>858.0088487631986</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>217.5180880355544</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="C34" t="n">
-        <v>47.31297010154361</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="D34" t="n">
-        <v>47.31297010154361</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="E34" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154361</v>
+        <v>1951.406783011508</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154361</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154361</v>
+        <v>1627.674178072448</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K34" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M34" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N34" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O34" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P34" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q34" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="V34" t="n">
-        <v>948.7599926430961</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="W34" t="n">
-        <v>859.9184901272292</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="X34" t="n">
-        <v>625.8381679102123</v>
+        <v>2264.291529939333</v>
       </c>
       <c r="Y34" t="n">
-        <v>402.7261067268557</v>
+        <v>2264.291529939333</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>764.5715220321224</v>
+        <v>843.0719964820685</v>
       </c>
       <c r="C35" t="n">
-        <v>371.396020535053</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="D35" t="n">
-        <v>371.396020535053</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H35" t="n">
         <v>47.31297010154361</v>
@@ -6941,19 +6943,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
-        <v>2017.461012945658</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
@@ -6971,16 +6973,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V35" t="n">
-        <v>2023.541695780699</v>
+        <v>2029.510056339807</v>
       </c>
       <c r="W35" t="n">
-        <v>1652.542660748986</v>
+        <v>2029.510056339807</v>
       </c>
       <c r="X35" t="n">
-        <v>1263.090055682043</v>
+        <v>1640.057451272864</v>
       </c>
       <c r="Y35" t="n">
-        <v>1165.066267743519</v>
+        <v>1243.566742193465</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
         <v>2341.731461975244</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T37" t="n">
-        <v>713.0409408113302</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U37" t="n">
-        <v>427.6021490532311</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6228038740554</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W37" t="n">
-        <v>161.6228038740554</v>
+        <v>2082.318103008358</v>
       </c>
       <c r="X37" t="n">
-        <v>161.6228038740554</v>
+        <v>1872.521562410285</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1649.409501226929</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1886.395173071196</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="C38" t="n">
-        <v>1886.395173071196</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.036739400527</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.453214517072</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7172,19 +7174,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O38" t="n">
         <v>2365.64850507718</v>
@@ -7202,22 +7204,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>2142.147902636597</v>
+        <v>2219.009296611503</v>
       </c>
       <c r="U38" t="n">
-        <v>1886.395173071196</v>
+        <v>1963.256567046102</v>
       </c>
       <c r="V38" t="n">
-        <v>1886.395173071196</v>
+        <v>1621.14975774962</v>
       </c>
       <c r="W38" t="n">
-        <v>1886.395173071196</v>
+        <v>1250.150722717908</v>
       </c>
       <c r="X38" t="n">
-        <v>1886.395173071196</v>
+        <v>860.6981176509647</v>
       </c>
       <c r="Y38" t="n">
-        <v>1886.395173071196</v>
+        <v>464.2074085715658</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154434</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154434</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998575</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.37706100646</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013062</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604043</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>1951.406783011508</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W40" t="n">
-        <v>1951.406783011508</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X40" t="n">
-        <v>1951.406783011508</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>968.782859969574</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C41" t="n">
-        <v>575.6073584725045</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D41" t="n">
-        <v>575.6073584725045</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E41" t="n">
-        <v>575.6073584725045</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F41" t="n">
-        <v>158.7129200024823</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>158.7129200024823</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7412,19 +7414,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L41" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N41" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P41" t="n">
         <v>2365.64850507718</v>
@@ -7433,28 +7435,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T41" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U41" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V41" t="n">
-        <v>1339.781895001287</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W41" t="n">
-        <v>968.782859969574</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X41" t="n">
-        <v>968.782859969574</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y41" t="n">
-        <v>968.782859969574</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7499,10 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
         <v>1960.027136360782</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>88.61239871721847</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
         <v>47.31297010154361</v>
@@ -7594,25 +7596,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>510.2248569938795</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V43" t="n">
-        <v>244.2455118147037</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W43" t="n">
-        <v>244.2455118147037</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X43" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.90353005913278</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C44" t="n">
-        <v>67.90353005913278</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D44" t="n">
-        <v>67.90353005913278</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E44" t="n">
-        <v>32.50681249897168</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>32.50681249897168</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>391.4891685264335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>793.7609732012081</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.032777875983</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1196.032777875983</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O44" t="n">
-        <v>1440.495064807636</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>1440.495064807636</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="W44" t="n">
-        <v>1254.341589916872</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="X44" t="n">
-        <v>864.8889848499285</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="Y44" t="n">
-        <v>468.3982757705297</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.6075338279917</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>168.953303388084</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>168.953303388084</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>32.50681249897168</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>434.7786171737463</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>434.7786171737463</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>837.050421848521</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O45" t="n">
-        <v>1223.06882027381</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.745553660438</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1292.68241033908</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1070.142408710147</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>840.0251628434341</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>650.7180851934459</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4038682689531</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>879.3721534455379</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>1568.784050935957</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>1333.064999104191</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>1047.626207346092</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>1047.626207346092</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>1047.626207346092</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>271.1401458256686</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>458.1505014870046</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O3" t="n">
-        <v>270.9005442600802</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,10 +8218,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>457.8528328367281</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,13 +8300,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>560.2818744604613</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>301.5486891608486</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>271.1401458256686</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>242.7955693701917</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8531,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>124.0799396297078</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,7 +8543,7 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>588.7923855055301</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8693,7 +8695,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8705,7 +8707,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8766,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095482</v>
+        <v>230.2980308590258</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8939,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>359.0336792490003</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>663.2434089132782</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>318.4607528074828</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9167,22 +9169,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9251,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>395.3134182086912</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>351.8313913012159</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9656,7 +9658,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
         <v>594.0482827698827</v>
@@ -9951,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
@@ -9960,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>656.228399718133</v>
+        <v>415.8062469585533</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10121,16 +10123,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>394.3609707612346</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
@@ -10197,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>593.8693786663686</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,16 +10427,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>317.5329465084867</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N33" t="n">
         <v>676.7842391234617</v>
@@ -10446,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10589,7 +10591,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10598,13 +10600,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>359.7712890658291</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10665,25 +10667,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>99.852421747409</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>526.4333644537654</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10835,7 +10837,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10899,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>569.9919810238536</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11060,10 +11062,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11072,10 +11074,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11145,13 +11147,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536975</v>
       </c>
       <c r="N42" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>353.4472259067887</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11300,19 +11302,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>540.0265064010113</v>
       </c>
       <c r="O44" t="n">
-        <v>396.4954403853621</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11373,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>491.7072690913127</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>482.6051330558472</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.689557048561</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>296.2858495455829</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22603,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22723,10 +22725,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22787,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.80965324550004</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>49.36559015376341</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22847,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,22 +22950,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>48.80965324549999</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>223.4433744696517</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23075,10 +23077,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,13 +23181,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23197,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>216.8961497769334</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23306,13 +23308,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>224.7055037124783</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>16.83481595771138</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>92.48239428282028</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23653,22 +23655,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>131.7634811092929</v>
@@ -23704,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282</v>
+        <v>59.85708420411822</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23783,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,13 +23892,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>34.02073895908222</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>244.8269359135523</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>62.9774576962011</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24133,7 +24135,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24142,10 +24144,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>11.48219010554993</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>240.3576544903972</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,7 +24256,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24263,16 +24265,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>34.67833723205388</v>
       </c>
       <c r="W23" t="n">
-        <v>210.251766216961</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,10 +24372,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,10 +24384,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>83.01253311791933</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.7603169205742</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,19 +24445,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>52.61103243193401</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>82.10661195307472</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24491,25 +24493,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>140.6271657791627</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>28.74152390036858</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24743,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>48.80965324549976</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24853,7 +24855,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>87.62118754448937</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>100.8873808189749</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24917,13 +24919,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>75.51878739879504</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24974,16 +24976,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>177.5720549397105</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>22.31857408727957</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>192.544010557426</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25169,7 +25171,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25211,16 +25213,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>5.908676953517556</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.4822519294665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25363,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>24.04094380275507</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.7142051367364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,19 +25396,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0518681615375</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25442,22 +25444,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>76.09278003515746</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214576</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>210.556269527245</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>103.4214787759262</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>113.1167896898714</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25871,13 +25873,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>363.5149392500614</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25919,16 +25921,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>4.985919140908379</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.84485310781623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26071,7 +26073,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>144.7969147067755</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338465</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654991.4797338468</v>
+        <v>654991.4797338467</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338462</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338465</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737891.5144596604</v>
+        <v>654991.4797338465</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737891.5144596605</v>
+        <v>654991.4797338459</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654991.4797338459</v>
+        <v>654991.4797338465</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338465</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654991.4797338462</v>
+        <v>654991.4797338465</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654991.479733847</v>
+        <v>654991.4797338467</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338468</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>527933.6375661416</v>
+        <v>654991.4797338467</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>135515.4785656234</v>
       </c>
       <c r="E2" t="n">
-        <v>135515.4785656235</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="F2" t="n">
         <v>135515.4785656234</v>
@@ -26329,10 +26331,10 @@
         <v>135515.4785656234</v>
       </c>
       <c r="H2" t="n">
-        <v>152667.2098882056</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="I2" t="n">
-        <v>152667.2098882056</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="J2" t="n">
         <v>135515.4785656234</v>
@@ -26344,16 +26346,16 @@
         <v>135515.4785656234</v>
       </c>
       <c r="M2" t="n">
-        <v>135515.4785656235</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="N2" t="n">
         <v>135515.4785656234</v>
       </c>
       <c r="O2" t="n">
+        <v>135515.4785656233</v>
+      </c>
+      <c r="P2" t="n">
         <v>135515.4785656234</v>
-      </c>
-      <c r="P2" t="n">
-        <v>109227.6491516154</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>461.3207027394317</v>
       </c>
       <c r="D4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="E4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="F4" t="n">
         <v>461.3207027394317</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>461.3207027394318</v>
+      </c>
+      <c r="H4" t="n">
         <v>461.3207027394317</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>461.3207027394316</v>
-      </c>
-      <c r="G4" t="n">
-        <v>461.3207027394317</v>
-      </c>
-      <c r="H4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="I4" t="n">
-        <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
         <v>461.3207027394317</v>
@@ -26445,7 +26447,7 @@
         <v>461.3207027394316</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="M4" t="n">
         <v>461.3207027394317</v>
@@ -26457,7 +26459,7 @@
         <v>461.3207027394316</v>
       </c>
       <c r="P4" t="n">
-        <v>327.2128085755303</v>
+        <v>461.3207027394316</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-132727.1054060342</v>
       </c>
       <c r="C6" t="n">
-        <v>65468.70058571082</v>
+        <v>65468.70058571079</v>
       </c>
       <c r="D6" t="n">
-        <v>65468.70058571085</v>
+        <v>65468.70058571079</v>
       </c>
       <c r="E6" t="n">
-        <v>99096.30058571088</v>
+        <v>99096.30058571085</v>
       </c>
       <c r="F6" t="n">
-        <v>99096.30058571079</v>
+        <v>99096.30058571085</v>
       </c>
       <c r="G6" t="n">
         <v>99096.30058571079</v>
       </c>
       <c r="H6" t="n">
-        <v>54972.4200182175</v>
+        <v>99096.30058571082</v>
       </c>
       <c r="I6" t="n">
-        <v>104907.8522256216</v>
+        <v>99096.30058571079</v>
       </c>
       <c r="J6" t="n">
-        <v>-7218.855032801053</v>
+        <v>-55643.13377989257</v>
       </c>
       <c r="K6" t="n">
         <v>99096.30058571082</v>
@@ -26552,16 +26554,16 @@
         <v>99096.30058571079</v>
       </c>
       <c r="M6" t="n">
-        <v>99096.30058571088</v>
+        <v>99096.30058571082</v>
       </c>
       <c r="N6" t="n">
-        <v>99096.30058571082</v>
+        <v>99096.30058571079</v>
       </c>
       <c r="O6" t="n">
+        <v>99096.30058571076</v>
+      </c>
+      <c r="P6" t="n">
         <v>99096.30058571079</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84195.25884382144</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>309.0320101492205</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O3" t="n">
-        <v>178.2129853711913</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,10 +34938,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>467.8947524111494</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066819</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.29687095179952</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>34.48300429637442</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,7 +35263,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>503.4202726513635</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35425,7 +35427,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553815</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35659,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>209.4698418249039</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.4725996515689</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35971,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>302.9262961593793</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>259.444269251904</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36376,7 +36378,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>570.8562868639664</v>
+        <v>330.4341341043866</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36841,16 +36843,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>501.1818197774796</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>227.4725996515685</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N33" t="n">
         <v>591.4121262692951</v>
@@ -37166,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37318,13 +37320,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>209.4698418249039</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>433.7458055648765</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37555,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37792,10 +37794,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043856</v>
       </c>
       <c r="N42" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>260.7596670178999</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -38020,19 +38022,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>390.9080150632272</v>
       </c>
       <c r="O44" t="n">
-        <v>246.9316029612658</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>389.9175741669583</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>470918.5405760814</v>
+        <v>465210.3847681953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462389</v>
+        <v>3854815.050462386</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -670,10 +670,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>116.439644539739</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>266.3944193941295</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126443</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>119.1637974217078</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.7828199682119</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.6172320222852</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>171.9000062624141</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>34.92740900290732</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1077,7 +1077,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>349.7480363891209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>134.480420859884</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
         <v>48.89338144820752</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6846499321096</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>91.3201668585711</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.5936484773495</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>156.691986794306</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.2650757350483</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1621,13 +1621,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>316.5487336740566</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.35758616116846</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>336.6327140501647</v>
+        <v>270.0800868599542</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>119.9824850603073</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>144.7467681673239</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>349.7480363891209</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>48.85414164418007</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>120.281291003743</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>37.9471646816482</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>166.2742864315192</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>48.75094799137356</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>336.6327140501647</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>110.4854923835505</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>92.73469553428545</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>28.3369300140971</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>248.2092831288392</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>369.8161657342523</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>181.6970230215432</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>306.0679300967039</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>41.733731216394</v>
       </c>
     </row>
     <row r="33">
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>100.3434053864692</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>332.7770642499992</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>50.42543431588499</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>207.6985751920917</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14.63085670662788</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>145.17281638102</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -3571,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>159.3149947016329</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>92.98376937306132</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>289.1043232126787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>248.2092831288392</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>248.209283128839</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4197,7 +4197,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.9534263337243</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C2" t="n">
-        <v>952.9534263337243</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D2" t="n">
-        <v>567.5122975503921</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E2" t="n">
-        <v>164.9287726669366</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G2" t="n">
         <v>47.31297010154361</v>
@@ -4330,16 +4330,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>318.7636682303387</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
         <v>1392.575851912381</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V2" t="n">
-        <v>2109.895775511779</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W2" t="n">
-        <v>1738.896740480066</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.444135413123</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y2" t="n">
-        <v>952.9534263337243</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
         <v>47.31297010154361</v>
@@ -4418,10 +4418,10 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
         <v>1725.662044805892</v>
@@ -4445,16 +4445,16 @@
         <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7856656383638</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7856656383638</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7856656383638</v>
+        <v>335.9344961452372</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7856656383638</v>
+        <v>335.9344961452372</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7856656383638</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7856656383638</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7856656383638</v>
+        <v>491.5676092427225</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.513125265401</v>
+        <v>1115.441955960011</v>
       </c>
       <c r="C5" t="n">
-        <v>835.3376237683314</v>
+        <v>722.2664544629417</v>
       </c>
       <c r="D5" t="n">
-        <v>449.8964949849991</v>
+        <v>336.8253256796095</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>336.8253256796095</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>336.8253256796095</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>336.8253256796095</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4570,49 +4570,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2025.498580056196</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2025.498580056196</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>2025.498580056196</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W5" t="n">
-        <v>2025.498580056196</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.498580056196</v>
+        <v>1515.936701671408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1629.007870976798</v>
+        <v>1515.936701671408</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>643.9940382195844</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.492043226187</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P6" t="n">
         <v>2365.64850507718</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="C7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="D7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>539.420211517574</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4758,19 +4758,19 @@
         <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y7" t="n">
-        <v>824.8590032756731</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.210445219441</v>
+        <v>1447.90751364532</v>
       </c>
       <c r="C8" t="n">
-        <v>786.0349437223717</v>
+        <v>1447.90751364532</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5938149390395</v>
+        <v>1062.466384861988</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>1062.466384861988</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>645.571946391966</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4807,49 +4807,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010237</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.705190930838</v>
+        <v>1848.402259356717</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1538.048126176974</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>2054.568408767956</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4922,13 +4922,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.8590032756731</v>
+        <v>671.3093811653594</v>
       </c>
       <c r="C10" t="n">
-        <v>824.8590032756731</v>
+        <v>671.3093811653594</v>
       </c>
       <c r="D10" t="n">
-        <v>824.8590032756731</v>
+        <v>515.6762680678742</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>856.5173998566606</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>856.5173998566606</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>856.5173998566606</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>856.5173998566606</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>856.5173998566606</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>825.9296003819453</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.445445502115</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
         <v>2365.64850507718</v>
@@ -5065,28 +5065,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.895775511779</v>
+        <v>2169.38085722704</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.788966215297</v>
+        <v>2169.38085722704</v>
       </c>
       <c r="W11" t="n">
-        <v>1396.789931183585</v>
+        <v>1798.381822195327</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.337326116642</v>
+        <v>1798.381822195327</v>
       </c>
       <c r="Y11" t="n">
-        <v>1007.337326116642</v>
+        <v>1401.891113115928</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1670983834974</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>1065.6651033901</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>493.1160829509863</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>337.4829698535011</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>181.9241577127036</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>181.9241577127036</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>181.9241577127036</v>
       </c>
       <c r="H13" t="n">
         <v>47.31297010154361</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085382</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019261</v>
+        <v>889.8525743473692</v>
       </c>
       <c r="F14" t="n">
-        <v>367.0591657319038</v>
+        <v>472.958135877347</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>59.79538036535013</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>59.79538036535013</v>
       </c>
       <c r="I14" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
         <v>2365.64850507718</v>
@@ -5302,28 +5302,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>1292.436099230825</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>643.9940382195844</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M15" t="n">
-        <v>1209.141762214911</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.141762214911</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O15" t="n">
         <v>1725.662044805892</v>
@@ -5396,13 +5396,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154361</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
         <v>47.31297010154361</v>
@@ -5515,22 +5515,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5539,28 +5539,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U17" t="n">
-        <v>1886.395173071196</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V17" t="n">
-        <v>1544.288363774714</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W17" t="n">
-        <v>1173.289328743002</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X17" t="n">
-        <v>783.8367236760583</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="Y17" t="n">
-        <v>387.3460145966595</v>
+        <v>1938.202986295759</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>54.70361680265978</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>374.4427628648862</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>858.0088487631995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5073994553894</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>168.5073994553894</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
         <v>47.31297010154361</v>
@@ -5697,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>622.0429194582225</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>622.0429194582225</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V19" t="n">
-        <v>622.0429194582225</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W19" t="n">
-        <v>338.7125173894001</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X19" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.210445219441</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C20" t="n">
-        <v>786.0349437223717</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D20" t="n">
-        <v>400.5938149390395</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E20" t="n">
-        <v>400.5938149390395</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
         <v>47.31297010154361</v>
@@ -5752,19 +5752,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
         <v>2365.64850507718</v>
@@ -5776,28 +5776,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2278.307973540298</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>2022.555243974897</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X20" t="n">
-        <v>1976.195900010237</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y20" t="n">
-        <v>1579.705190930838</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.2248569938795</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C22" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>354.666044853082</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>354.666044853082</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>354.666044853082</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>199.187493814576</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
         <v>47.31297010154361</v>
@@ -5937,25 +5937,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>745.9439088256454</v>
+        <v>910.4295232676939</v>
       </c>
       <c r="T22" t="n">
-        <v>510.2248569938795</v>
+        <v>674.710471435928</v>
       </c>
       <c r="U22" t="n">
-        <v>510.2248569938795</v>
+        <v>674.710471435928</v>
       </c>
       <c r="V22" t="n">
-        <v>510.2248569938795</v>
+        <v>674.710471435928</v>
       </c>
       <c r="W22" t="n">
-        <v>510.2248569938795</v>
+        <v>674.710471435928</v>
       </c>
       <c r="X22" t="n">
-        <v>510.2248569938795</v>
+        <v>440.630149218911</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.2248569938795</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.57031924742</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.394817750351</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D23" t="n">
         <v>1279.953688967018</v>
@@ -5989,22 +5989,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O23" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
         <v>2365.64850507718</v>
@@ -6013,28 +6013,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V23" t="n">
-        <v>2058.57031924742</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W23" t="n">
-        <v>2058.57031924742</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X23" t="n">
-        <v>2058.57031924742</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="Y23" t="n">
-        <v>2058.57031924742</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2180.440486385879</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>2180.440486385879</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>2180.440486385879</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>2024.881674245082</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1867.555739458054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1699.3016855575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1543.823134518994</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X25" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>387.3460145966595</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C26" t="n">
-        <v>47.31297010154361</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
         <v>47.31297010154361</v>
@@ -6229,22 +6229,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M26" t="n">
-        <v>1392.575851912381</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N26" t="n">
-        <v>1392.575851912381</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.61545280471</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
@@ -6253,25 +6253,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2142.147902636597</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U26" t="n">
-        <v>1886.395173071196</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V26" t="n">
-        <v>1544.288363774714</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W26" t="n">
-        <v>1173.289328743002</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X26" t="n">
-        <v>783.8367236760583</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="Y26" t="n">
-        <v>387.3460145966595</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>184.9976404890318</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I27" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.64850507718</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>528.3715098276311</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C28" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
         <v>47.31297010154361</v>
@@ -6408,28 +6408,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>528.3715098276311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>528.3715098276311</v>
+        <v>920.136831012695</v>
       </c>
       <c r="V28" t="n">
-        <v>528.3715098276311</v>
+        <v>920.136831012695</v>
       </c>
       <c r="W28" t="n">
-        <v>528.3715098276311</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X28" t="n">
-        <v>528.3715098276311</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y28" t="n">
-        <v>528.3715098276311</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1681.888704297768</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C29" t="n">
-        <v>1681.888704297768</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D29" t="n">
-        <v>1296.447575514436</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E29" t="n">
-        <v>922.895892954585</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F29" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
@@ -6466,22 +6466,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M29" t="n">
-        <v>1590.266290800943</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N29" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
@@ -6490,25 +6490,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U29" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V29" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W29" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X29" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.888704297768</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>1803.212380060541</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U31" t="n">
-        <v>1619.680033574134</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.680033574134</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>1619.680033574134</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1579.705190930838</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="C32" t="n">
-        <v>1186.529689433769</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="D32" t="n">
-        <v>877.3701640835627</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
         <v>2365.64850507718</v>
@@ -6724,28 +6724,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.195900010237</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y32" t="n">
-        <v>1579.705190930838</v>
+        <v>926.6275759126104</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>480.1670983834974</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>623.643757208308</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2264.291529939333</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>2264.291529939333</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>2264.291529939333</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2264.291529939333</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.291529939333</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.291529939333</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.291529939333</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V34" t="n">
-        <v>2264.291529939333</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W34" t="n">
-        <v>2264.291529939333</v>
+        <v>163.7311935633321</v>
       </c>
       <c r="X34" t="n">
-        <v>2264.291529939333</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>2264.291529939333</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>843.0719964820685</v>
+        <v>1256.234751994065</v>
       </c>
       <c r="C35" t="n">
-        <v>449.8964949849991</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D35" t="n">
-        <v>449.8964949849991</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
         <v>47.31297010154361</v>
@@ -6937,52 +6937,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O35" t="n">
-        <v>1973.427801529577</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V35" t="n">
-        <v>2029.510056339807</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W35" t="n">
-        <v>2029.510056339807</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X35" t="n">
-        <v>1640.057451272864</v>
+        <v>2053.220206784861</v>
       </c>
       <c r="Y35" t="n">
-        <v>1243.566742193465</v>
+        <v>1656.729497705462</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O36" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
         <v>2131.283413522289</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2365.64850507718</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U37" t="n">
-        <v>2365.64850507718</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V37" t="n">
-        <v>2365.64850507718</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>2082.318103008358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>1872.521562410285</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>1649.409501226929</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>464.2074085715658</v>
+        <v>617.323168617109</v>
       </c>
       <c r="C38" t="n">
-        <v>464.2074085715658</v>
+        <v>617.323168617109</v>
       </c>
       <c r="D38" t="n">
-        <v>464.2074085715658</v>
+        <v>617.323168617109</v>
       </c>
       <c r="E38" t="n">
-        <v>464.2074085715658</v>
+        <v>617.323168617109</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4287301470868</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
         <v>47.31297010154361</v>
@@ -7183,13 +7183,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N38" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P38" t="n">
         <v>2365.64850507718</v>
@@ -7201,25 +7201,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2219.009296611503</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U38" t="n">
-        <v>1963.256567046102</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V38" t="n">
-        <v>1621.14975774962</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W38" t="n">
-        <v>1250.150722717908</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X38" t="n">
-        <v>860.6981176509647</v>
+        <v>617.323168617109</v>
       </c>
       <c r="Y38" t="n">
-        <v>464.2074085715658</v>
+        <v>617.323168617109</v>
       </c>
     </row>
     <row r="39">
@@ -7262,13 +7262,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P39" t="n">
         <v>2365.648505077179</v>
@@ -7359,22 +7359,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V40" t="n">
-        <v>787.8357555707396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W40" t="n">
-        <v>504.5053535019172</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
         <v>47.31297010154361</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1673.129190464088</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="C41" t="n">
-        <v>1279.953688967018</v>
+        <v>1512.213805241282</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.953688967018</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
         <v>47.31297010154361</v>
@@ -7414,16 +7414,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N41" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O41" t="n">
         <v>2017.461012945658</v>
@@ -7435,28 +7435,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="Y41" t="n">
-        <v>2073.623936175485</v>
+        <v>1905.389306738351</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P42" t="n">
         <v>2365.648505077179</v>
@@ -7599,16 +7599,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>830.7030395665587</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>564.7236943873829</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
         <v>47.31297010154361</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1279.953688967018</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C44" t="n">
         <v>1279.953688967018</v>
@@ -7651,22 +7651,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N44" t="n">
-        <v>1832.61545280471</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
         <v>2365.64850507718</v>
@@ -7681,19 +7681,19 @@
         <v>2327.655591362702</v>
       </c>
       <c r="U44" t="n">
-        <v>2076.939143757814</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V44" t="n">
-        <v>2076.939143757814</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W44" t="n">
-        <v>2076.939143757814</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X44" t="n">
-        <v>2076.939143757814</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.448434678415</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818107</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M45" t="n">
-        <v>1549.231189288413</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N45" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7836,13 +7836,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U46" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
         <v>47.31297010154361</v>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>271.1401458256686</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>647.6646819662596</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8066,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2595653118437</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8218,13 +8218,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>457.8528328367281</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,10 +8294,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8306,13 +8306,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>301.5486891608486</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8455,10 +8455,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>588.7923855055301</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>401.305684323582</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8704,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>230.2980308590258</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9005,22 +9005,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>605.1654020112569</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9172,16 +9172,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>89.90975703143043</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9254,13 +9254,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9409,13 +9409,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9652,10 +9652,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9877,25 +9877,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>312.6943406142593</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N27" t="n">
-        <v>415.8062469585533</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10123,16 +10123,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>498.7523067719748</v>
       </c>
       <c r="O29" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10363,7 +10363,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
@@ -10433,22 +10433,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>237.313040054171</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10600,13 +10600,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P35" t="n">
-        <v>359.7712890658291</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>526.4333644537654</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10831,16 +10831,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10910,16 +10910,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>569.9919810238536</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11062,10 +11062,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11074,7 +11074,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>422.8212561536975</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11299,25 +11299,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>540.0265064010113</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11378,25 +11378,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N45" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>325.9393879617821</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22549,7 +22549,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>296.2858495455829</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22603,19 +22603,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>126.1313825944754</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>36.58887801744901</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>108.8015838723062</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22770,10 +22770,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22801,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>34.22498790688906</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>49.36559015376341</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22849,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22950,10 +22950,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.8252664362494</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.80965324549999</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>274.5507070969928</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23086,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.31857408727987</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -23235,7 +23235,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>191.264236981947</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.8961497769334</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -23314,19 +23314,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>96.50321547544141</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23433,7 +23433,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>20.65868979307263</v>
       </c>
       <c r="I13" t="n">
         <v>131.7634811092929</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.48239428282028</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>124.5961595772914</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23560,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23655,22 +23655,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
         <v>131.7634811092929</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.85708420411822</v>
+        <v>126.4097113943287</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>34.02073895908222</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>62.9774576962011</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>172.4114547719974</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24144,13 +24144,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>11.48219010554993</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>162.8407582976279</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.67833723205388</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>226.2515155570857</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>83.01253311791933</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24445,10 +24445,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>52.61103243193401</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24460,10 +24460,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>275.0725866327233</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24612,13 +24612,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>140.6271657791627</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>254.247473826421</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>141.0344633532595</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>28.74152390036858</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24855,7 +24855,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>100.8873808189749</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>75.51878739879504</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>350.7920707722109</v>
       </c>
     </row>
     <row r="33">
@@ -25083,22 +25083,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.31857408727957</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25168,7 +25168,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>5.908676953517556</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>335.1326447003887</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.04094380275507</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>394.400271250249</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>76.09278003515746</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25599,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>104.0045570257511</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>288.6029481224376</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.4214787759262</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25839,10 +25839,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>141.0344633532595</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25921,7 +25921,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>4.985919140908379</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338464</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>654991.4797338465</v>
+        <v>654991.4797338462</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338462</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654991.4797338462</v>
+        <v>654991.4797338467</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654991.4797338465</v>
+        <v>654991.4797338466</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654991.4797338465</v>
+        <v>654991.4797338466</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654991.4797338459</v>
+        <v>654991.4797338467</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654991.4797338465</v>
+        <v>654991.4797338462</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654991.4797338465</v>
+        <v>654991.4797338466</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654991.4797338465</v>
+        <v>654991.4797338468</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338466</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654991.4797338468</v>
+        <v>654991.4797338467</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654991.4797338467</v>
+        <v>654991.4797338466</v>
       </c>
     </row>
   </sheetData>
@@ -26322,19 +26322,19 @@
         <v>135515.4785656234</v>
       </c>
       <c r="E2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="F2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="G2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="H2" t="n">
         <v>135515.4785656234</v>
       </c>
       <c r="I2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="J2" t="n">
         <v>135515.4785656234</v>
@@ -26346,13 +26346,13 @@
         <v>135515.4785656234</v>
       </c>
       <c r="M2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="N2" t="n">
         <v>135515.4785656234</v>
       </c>
       <c r="O2" t="n">
-        <v>135515.4785656233</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="P2" t="n">
         <v>135515.4785656234</v>
@@ -26423,22 +26423,22 @@
         <v>461.3207027394317</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="F4" t="n">
         <v>461.3207027394317</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394318</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="H4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="I4" t="n">
         <v>461.3207027394317</v>
-      </c>
-      <c r="I4" t="n">
-        <v>461.3207027394316</v>
       </c>
       <c r="J4" t="n">
         <v>461.3207027394317</v>
@@ -26450,16 +26450,16 @@
         <v>461.3207027394317</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="N4" t="n">
         <v>461.3207027394317</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132727.1054060342</v>
+        <v>-133401.1315322542</v>
       </c>
       <c r="C6" t="n">
-        <v>65468.70058571079</v>
+        <v>64794.67445949078</v>
       </c>
       <c r="D6" t="n">
-        <v>65468.70058571079</v>
+        <v>64794.67445949075</v>
       </c>
       <c r="E6" t="n">
-        <v>99096.30058571085</v>
+        <v>98422.27445949073</v>
       </c>
       <c r="F6" t="n">
-        <v>99096.30058571085</v>
+        <v>98422.27445949073</v>
       </c>
       <c r="G6" t="n">
-        <v>99096.30058571079</v>
+        <v>98422.27445949073</v>
       </c>
       <c r="H6" t="n">
-        <v>99096.30058571082</v>
+        <v>98422.27445949079</v>
       </c>
       <c r="I6" t="n">
-        <v>99096.30058571079</v>
+        <v>98422.27445949073</v>
       </c>
       <c r="J6" t="n">
-        <v>-55643.13377989257</v>
+        <v>-56317.15990611261</v>
       </c>
       <c r="K6" t="n">
-        <v>99096.30058571082</v>
+        <v>98422.27445949079</v>
       </c>
       <c r="L6" t="n">
-        <v>99096.30058571079</v>
+        <v>98422.27445949079</v>
       </c>
       <c r="M6" t="n">
-        <v>99096.30058571082</v>
+        <v>98422.27445949073</v>
       </c>
       <c r="N6" t="n">
-        <v>99096.30058571079</v>
+        <v>98422.27445949081</v>
       </c>
       <c r="O6" t="n">
-        <v>99096.30058571076</v>
+        <v>98422.27445949081</v>
       </c>
       <c r="P6" t="n">
-        <v>99096.30058571079</v>
+        <v>98422.27445949076</v>
       </c>
     </row>
   </sheetData>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>128.0817426464313</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34786,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>247.8874524576771</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34938,13 +34938,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>314.7944296574907</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35026,13 +35026,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>216.1765763066819</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>503.4202726513635</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>314.2223195042674</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35424,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>144.9259180048591</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>512.477843122368</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35892,16 +35892,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.465299698097082</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35974,13 +35974,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36129,13 +36129,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36372,10 +36372,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
+        <v>178.2129853711913</v>
+      </c>
+      <c r="N27" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N27" t="n">
-        <v>330.4341341043866</v>
-      </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36843,16 +36843,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>349.6338154341907</v>
       </c>
       <c r="O29" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37083,7 +37083,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>144.9259180048591</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37320,13 +37320,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P35" t="n">
-        <v>209.4698418249039</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7458055648765</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37551,16 +37551,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>484.6198681696869</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37794,7 +37794,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>330.4341341043856</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>390.9080150632272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="N45" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>233.2518290728932</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
